--- a/Grafiken/Results/results_selected_layers/MVS_Results_selected_param.xlsx
+++ b/Grafiken/Results/results_selected_layers/MVS_Results_selected_param.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="103" windowWidth="15120" windowHeight="8014"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -312,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -499,7 +505,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -532,6 +538,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -832,25 +847,25 @@
   <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L22" sqref="L22:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.3046875" customWidth="1"/>
-    <col min="3" max="3" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.23046875" customWidth="1"/>
-    <col min="6" max="6" width="5.84375" customWidth="1"/>
-    <col min="7" max="7" width="6.3046875" customWidth="1"/>
-    <col min="8" max="8" width="5.921875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="6.15234375" customWidth="1"/>
-    <col min="11" max="11" width="10.84375" customWidth="1"/>
-    <col min="13" max="13" width="6.23046875" customWidth="1"/>
-    <col min="14" max="14" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" thickBot="1">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -865,7 +880,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -977,7 +992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1">
       <c r="B6" s="23"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -1089,7 +1104,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -1201,7 +1216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1">
+    <row r="12" spans="2:14" ht="15.75" thickBot="1">
       <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -1313,7 +1328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1">
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>27</v>
@@ -1380,10 +1395,10 @@
       <c r="K16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1418,14 +1433,14 @@
       <c r="K17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15" thickBot="1">
+    <row r="18" spans="2:14" ht="15.75" thickBot="1">
       <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>27</v>
@@ -1454,10 +1469,10 @@
       <c r="K18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="34" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1539,7 +1554,7 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="15" thickBot="1">
+    <row r="21" spans="2:14" ht="15.75" thickBot="1">
       <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>27</v>
@@ -1607,7 +1622,7 @@
       <c r="K22" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="38" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1646,7 +1661,7 @@
       <c r="K23" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="39" t="s">
         <v>64</v>
       </c>
       <c r="M23" s="4" t="s">
@@ -1654,7 +1669,7 @@
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="15" thickBot="1">
+    <row r="24" spans="2:14" ht="15.75" thickBot="1">
       <c r="B24" s="25" t="s">
         <v>31</v>
       </c>
@@ -1685,7 +1700,7 @@
       <c r="K24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M24" s="5" t="s">
@@ -2115,7 +2130,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2128,7 +2143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Grafiken/Results/results_selected_layers/MVS_Results_selected_param.xlsx
+++ b/Grafiken/Results/results_selected_layers/MVS_Results_selected_param.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -273,8 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +311,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -342,8 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -499,11 +505,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -541,14 +548,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Akzent2" xfId="4" builtinId="33"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
@@ -556,13 +564,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,9 +616,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,9 +650,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,9 +685,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -843,14 +861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:L24"/>
+      <selection activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
@@ -865,7 +883,7 @@
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -880,7 +898,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -918,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
@@ -956,7 +974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
       <c r="C5" s="4">
         <v>2</v>
@@ -992,7 +1010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="23"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -1028,7 +1046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>48</v>
       </c>
@@ -1066,7 +1084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
@@ -1104,7 +1122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -1140,7 +1158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>48</v>
       </c>
@@ -1178,7 +1196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>50</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1">
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -1252,7 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>49</v>
       </c>
@@ -1328,7 +1346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>27</v>
@@ -1364,7 +1382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>52</v>
       </c>
@@ -1402,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>31</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.75" thickBot="1">
+    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>27</v>
@@ -1476,7 +1494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>36</v>
       </c>
@@ -1515,7 +1533,7 @@
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1572,7 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="15.75" thickBot="1">
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>27</v>
@@ -1591,7 +1609,7 @@
       </c>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>36</v>
       </c>
@@ -1630,7 +1648,7 @@
       </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1687,7 @@
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1">
+    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +1726,7 @@
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1722,7 +1740,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1736,7 +1754,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1750,7 +1768,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1764,7 +1782,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1778,7 +1796,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1792,7 +1810,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1806,7 +1824,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1820,7 +1838,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1834,7 +1852,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1848,7 +1866,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1862,7 +1880,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1876,7 +1894,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1890,7 +1908,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1904,7 +1922,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1918,7 +1936,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1932,7 +1950,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1946,7 +1964,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1960,7 +1978,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1974,7 +1992,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1988,7 +2006,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2002,7 +2020,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2016,7 +2034,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2030,7 +2048,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2044,7 +2062,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="3:14">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2058,7 +2076,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2072,7 +2090,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2086,7 +2104,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="3:14">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2100,7 +2118,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2125,12 +2143,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2138,12 +2156,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Grafiken/Results/results_selected_layers/MVS_Results_selected_param.xlsx
+++ b/Grafiken/Results/results_selected_layers/MVS_Results_selected_param.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -273,8 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,9 +576,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -616,9 +616,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,10 +650,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,10 +684,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,14 +859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:M12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
@@ -883,7 +881,7 @@
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -898,7 +896,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -936,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
@@ -974,7 +972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="B5" s="23"/>
       <c r="C5" s="4">
         <v>2</v>
@@ -1010,7 +1008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1">
       <c r="B6" s="23"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -1046,7 +1044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14">
       <c r="B7" s="24" t="s">
         <v>48</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -1158,7 +1156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14">
       <c r="B10" s="23" t="s">
         <v>48</v>
       </c>
@@ -1196,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14">
       <c r="B11" s="23" t="s">
         <v>50</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="15.75" thickBot="1">
       <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -1270,7 +1268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14">
       <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14">
       <c r="B14" s="23" t="s">
         <v>49</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1">
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>27</v>
@@ -1382,7 +1380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14">
       <c r="B16" s="24" t="s">
         <v>52</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14">
       <c r="B17" s="23" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="15.75" thickBot="1">
       <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>27</v>
@@ -1494,7 +1492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14">
       <c r="B19" s="24" t="s">
         <v>36</v>
       </c>
@@ -1533,7 +1531,7 @@
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14">
       <c r="B20" s="23" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1570,7 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="15.75" thickBot="1">
       <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>27</v>
@@ -1609,7 +1607,7 @@
       </c>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14">
       <c r="B22" s="24" t="s">
         <v>36</v>
       </c>
@@ -1648,7 +1646,7 @@
       </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14">
       <c r="B23" s="23" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1685,7 @@
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="15.75" thickBot="1">
       <c r="B24" s="25" t="s">
         <v>31</v>
       </c>
@@ -1726,7 +1724,7 @@
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1740,7 +1738,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1754,7 +1752,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1768,7 +1766,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1782,7 +1780,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1796,7 +1794,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1810,7 +1808,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1824,7 +1822,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1838,7 +1836,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1852,7 +1850,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1866,7 +1864,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1880,7 +1878,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:14">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1894,7 +1892,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:14">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1908,7 +1906,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1922,7 +1920,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:14">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1936,7 +1934,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:14">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1950,7 +1948,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:14">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1964,7 +1962,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:14">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1978,7 +1976,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:14">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1992,7 +1990,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:14">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2006,7 +2004,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:14">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2020,7 +2018,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:14">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2034,7 +2032,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:14">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2048,7 +2046,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:14">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2062,7 +2060,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:14">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2076,7 +2074,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:14">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2090,7 +2088,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:14">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2104,7 +2102,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:14">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2118,7 +2116,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:14">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2143,12 +2141,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2156,12 +2154,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
